--- a/Freq_Volt_Profile/Raw_Excels/Frequency_21_03_2022.xlsx
+++ b/Freq_Volt_Profile/Raw_Excels/Frequency_21_03_2022.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164E9492-060C-470E-BD65-4A5D182284F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7659D656-F457-4056-80E5-5BF174F4DFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>15 Minute average</t>
   </si>
   <si>
     <t>Time Block</t>
-  </si>
-  <si>
-    <t>5 min</t>
   </si>
   <si>
     <t>timestamp</t>
@@ -927,10 +924,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AV8641"/>
+  <dimension ref="A1:AG8641"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="59" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,10 +939,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1068,7 +1065,7 @@
         <v>50.091900000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>44641.001736111109</v>
       </c>
@@ -1076,7 +1073,7 @@
         <v>50.095399999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>44641.001851851855</v>
       </c>
@@ -1084,18 +1081,15 @@
         <v>50.106699999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>44641.001967592594</v>
       </c>
       <c r="B19" s="9">
         <v>50.098999999999997</v>
       </c>
-      <c r="AV19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>44641.002083333333</v>
       </c>
@@ -1103,7 +1097,7 @@
         <v>50.099800000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>44641.002199074072</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>50.091000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>44641.002314814818</v>
       </c>
@@ -1119,7 +1113,7 @@
         <v>50.090400000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>44641.002430555556</v>
       </c>
@@ -1127,7 +1121,7 @@
         <v>50.098100000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>44641.002546296295</v>
       </c>
@@ -1135,7 +1129,7 @@
         <v>50.092399999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>44641.002662037034</v>
       </c>
@@ -1143,7 +1137,7 @@
         <v>50.084499999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>44641.00277777778</v>
       </c>
@@ -1151,7 +1145,7 @@
         <v>50.076099999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>44641.002893518518</v>
       </c>
@@ -1159,7 +1153,7 @@
         <v>50.082599999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>44641.003009259257</v>
       </c>
@@ -1167,7 +1161,7 @@
         <v>50.081600000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>44641.003125000003</v>
       </c>
@@ -1175,7 +1169,7 @@
         <v>50.078299999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>44641.003240740742</v>
       </c>
@@ -1209,7 +1203,7 @@
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>44641.00335648148</v>
       </c>
@@ -1217,7 +1211,7 @@
         <v>50.075400000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>44641.003472222219</v>
       </c>
